--- a/results/mp/logistic/corona/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,67 +67,61 @@
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>care</t>
@@ -494,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +631,13 @@
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3856589147286822</v>
+        <v>0.3585271317829458</v>
       </c>
       <c r="C5">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D5">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1812080536912752</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -763,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.835509138381201</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>88</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>88</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -781,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -789,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8055555555555556</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -807,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -815,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -833,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -841,13 +835,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7924528301886793</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -859,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -867,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.775</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -885,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -893,13 +887,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7734375</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -911,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -919,13 +913,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7682926829268293</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -937,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -945,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7605633802816901</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -963,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -971,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7575757575757576</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -989,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -997,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1015,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1023,13 +1017,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1041,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1049,13 +1043,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1067,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1075,13 +1069,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6744186046511628</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1093,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1101,13 +1095,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1119,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1127,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1145,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1153,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1171,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1179,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6205882352941177</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L23">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1197,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>129</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1205,13 +1199,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5857740585774058</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L24">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="M24">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1223,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1231,13 +1225,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5830508474576271</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L25">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="M25">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1249,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>123</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1257,13 +1251,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5425531914893617</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1275,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1283,13 +1277,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5384615384615384</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1301,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1309,13 +1303,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5168539325842697</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1327,59 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="L29">
-        <v>36</v>
-      </c>
-      <c r="M29">
-        <v>36</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L30">
-        <v>26</v>
-      </c>
-      <c r="M30">
-        <v>26</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
